--- a/historical/NYKAA.xlsx
+++ b/historical/NYKAA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O215"/>
+  <dimension ref="A1:O216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10537,6 +10537,53 @@
         <v>0.4896</v>
       </c>
     </row>
+    <row r="216" spans="1:15">
+      <c r="A216" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B216" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216">
+        <v>1337.75</v>
+      </c>
+      <c r="E216">
+        <v>1351</v>
+      </c>
+      <c r="F216">
+        <v>1351.05</v>
+      </c>
+      <c r="G216">
+        <v>1320.1</v>
+      </c>
+      <c r="H216">
+        <v>1325</v>
+      </c>
+      <c r="I216">
+        <v>1325.25</v>
+      </c>
+      <c r="J216">
+        <v>1334.04</v>
+      </c>
+      <c r="K216">
+        <v>167234</v>
+      </c>
+      <c r="L216">
+        <v>22309626750000</v>
+      </c>
+      <c r="M216">
+        <v>11399</v>
+      </c>
+      <c r="N216">
+        <v>71729</v>
+      </c>
+      <c r="O216">
+        <v>0.4289</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
